--- a/test/ManualTest28042014.xlsx
+++ b/test/ManualTest28042014.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="82">
   <si>
     <t>Tests zu Requiremets 1 - Veranstaltungsverwaltung</t>
   </si>
@@ -37,241 +37,229 @@
     <t>Test</t>
   </si>
   <si>
-    <t>Test Case Nummer</t>
-  </si>
-  <si>
-    <t>Erwartetes Ergebnis</t>
-  </si>
-  <si>
-    <t>Veranstaltung anlegen</t>
-  </si>
-  <si>
-    <t>Veranstaltung soll angelegt sein. Bei neuer Navigation zur Seite soll die Veranstaltung noch immer zu finden sein.</t>
-  </si>
-  <si>
-    <t>Verschiedene Kombinationen für Event-Namen sollen getestet werden:</t>
-  </si>
-  <si>
-    <t>Leerer Name sollte invalid sein (nicht speichern)</t>
-  </si>
-  <si>
-    <t>Namen sollen so gespeichert werden, wie sie eingegeben werden (Groß- und Kleinschreibung)</t>
-  </si>
-  <si>
-    <t>Namen müssen nicht eindeutig sein, es können Veranstaltung mit selben Namen angelegt werden.</t>
-  </si>
-  <si>
-    <t>Alle Sonderzeichen und Kombinationen der deutschen Tastatur sollen möglich sein.</t>
-  </si>
-  <si>
-    <t>Der Name sollte schon in der GUI auf die Datenbank-Grenzen begrenzt sein.</t>
-  </si>
-  <si>
-    <t>Name der Veranstaltung - anlegen</t>
-  </si>
-  <si>
-    <t>Name der Veranstaltung - editieren</t>
-  </si>
-  <si>
-    <t>Bei nicht validen Werten sollte nicht gespeichert werden können.</t>
-  </si>
-  <si>
-    <t>Beschreibung der Veranstaltung - anlegen</t>
-  </si>
-  <si>
-    <t>Tag-Liste - anlegen</t>
-  </si>
-  <si>
-    <t>Zeit-Fenster der Analyse - anlegen</t>
-  </si>
-  <si>
-    <t>Tweet-Zahl bis zur Benachrichtigung - anlegen</t>
-  </si>
-  <si>
-    <t>Verschiedene Kombinationen sollen getestet werden:</t>
-  </si>
-  <si>
-    <t>Zahlen sollen eingegeben werden können.</t>
-  </si>
-  <si>
-    <t>Text soll nicht eingegeben werden können, oder wenigstens nicht gespeichert werden können.</t>
-  </si>
-  <si>
-    <t>Der Wert sollte schon in der GUI auf die Datenbank-Grenzen begrenzt sein.</t>
-  </si>
-  <si>
-    <t>Natürliche, nicht negative Zahlen sollen eingegeben werden können.</t>
-  </si>
-  <si>
-    <t>Die gespeicheten Werte können wieder richtig ausgelesen werden.</t>
-  </si>
-  <si>
-    <t>Leere Beschreibung sollte möglich sein.</t>
-  </si>
-  <si>
-    <t>Wie werden verschiedene Wörter eingegeben?</t>
-  </si>
-  <si>
-    <t>Leere Liste soll nicht gespeichert werden können.</t>
-  </si>
-  <si>
-    <t>Der gleiche Tag kann nicht eingegeben werden.</t>
-  </si>
-  <si>
-    <t>Date-Until darf nicht Date-From unterschreiben.</t>
-  </si>
-  <si>
-    <t>Tabelle der Veranstaltungen</t>
-  </si>
-  <si>
-    <t>Detailansicht zu allen Veranstaltungen kann aufgerufen werden.</t>
-  </si>
-  <si>
-    <t>Die bestehenden (hinzugefügten und editierten) Veranstaltungen werden in einer Tabelle angezeigt.</t>
-  </si>
-  <si>
-    <t>Detailansicht zu Veranstaltungen</t>
-  </si>
-  <si>
-    <t>Die richtigen gespeicherten Informationen werden angezeigt.</t>
-  </si>
-  <si>
-    <t>Die richtigen editierten Informationen werden angezeigt.</t>
-  </si>
-  <si>
     <t>ok</t>
   </si>
   <si>
-    <t>Veranstaltung anlegen - abbrechen</t>
-  </si>
-  <si>
-    <t>Veranstaltung editieren - abbrechen</t>
-  </si>
-  <si>
-    <t>Es wird neue Veranstaltung geklickt und Werte eingegeben, danach wird abgebrochen.</t>
-  </si>
-  <si>
-    <t>Die Veranstaltung sollte nicht hinzugefügt werden.</t>
-  </si>
-  <si>
-    <t>Es wird eine Veranstaltung editiert, die Werte in der Detailansicht verändert und dann abgebrochen.</t>
-  </si>
-  <si>
-    <t>Die Veranstaltung sollte nicht verändert sein.</t>
-  </si>
-  <si>
-    <t>Event löschen</t>
-  </si>
-  <si>
-    <t>Ein Event sollte gelöscht werden können. Danach kann ist es nicht mehr in der Datenbank.</t>
-  </si>
-  <si>
-    <t>Event löschen - abbrechen</t>
-  </si>
-  <si>
-    <t>Ein Event wird gelöscht, aber das Löschen wird abgebrochen.</t>
-  </si>
-  <si>
-    <t>Das Event sollte nicht gelöscht werden, und kann noch immer gefunden werden.</t>
-  </si>
-  <si>
     <t>unklar</t>
   </si>
   <si>
-    <t>Verwendeter String für den Test der Sonderzeichen:</t>
-  </si>
-  <si>
     <t>1234567890ß´^°!"§$%&amp;/()=?`*'ÄÖÜ_:;+ü#äö-.,&lt;&gt;|@€µ</t>
   </si>
   <si>
-    <t>ok (konnte keine invaliden Werte finden)</t>
-  </si>
-  <si>
-    <t>nicht ok, ein zu langer Text wird einfach</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> abgeschnitten gespeichert</t>
-  </si>
-  <si>
-    <t>ok (konnte keinen nicht validen Wert finden)</t>
-  </si>
-  <si>
-    <t>abgeschnitten gespeichert</t>
-  </si>
-  <si>
-    <t>Special character " - Hochkomma beendet</t>
-  </si>
-  <si>
-    <t>den Eingabe-String, es kommt zu falschen Ergebnissen.</t>
-  </si>
-  <si>
-    <t>wird ohne Dialog einfach gespeichert und abgeschnitten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nicht ok,  ein zu langer Text </t>
-  </si>
-  <si>
     <t>Der gleiche Tag kann eingegeben werden?</t>
   </si>
   <si>
-    <t xml:space="preserve">Eingeben von Daten funktioniert nicht richtig - </t>
-  </si>
-  <si>
-    <t>es anscheinend falsche Daten überliefert.</t>
-  </si>
-  <si>
-    <t>zb wird eingegeben:</t>
-  </si>
-  <si>
     <t>from 01.01.2014</t>
   </si>
   <si>
     <t>to 02.02.2015</t>
   </si>
   <si>
-    <t xml:space="preserve">das Ergebnis ist: </t>
-  </si>
-  <si>
     <t>from 20.01.2001</t>
   </si>
   <si>
     <t>to 20.02.2002</t>
   </si>
   <si>
-    <t>da im gleichen Formular, wird dies nun nicht getestet</t>
-  </si>
-  <si>
-    <t>Nur eine Anmerkung dazu: die Daten werden in einem anderen Format</t>
-  </si>
-  <si>
-    <t>aus der Datenbank ausgelesen und ins Feld befüllt</t>
-  </si>
-  <si>
-    <t>&gt; es muss immer nach editiert werden.</t>
-  </si>
-  <si>
-    <t>zB von 20.0.2001</t>
-  </si>
-  <si>
-    <t>wird zu 2001-01-20</t>
-  </si>
-  <si>
-    <t>Zeit-Fenster der Analyse - editieren</t>
-  </si>
-  <si>
-    <t>Tag-Liste - editieren</t>
-  </si>
-  <si>
-    <t>Beschreibung der Veranstaltung - editieren</t>
-  </si>
-  <si>
-    <t>Tweet-Zahl bis zur Benachrichtigung - editieren</t>
-  </si>
-  <si>
-    <t>nicht bei from / to Date und einem Tag-Spezialfall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     konnte noch nicht verifiziert werden</t>
+    <t>could not be verified</t>
+  </si>
+  <si>
+    <t>Testcase number</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Create an event</t>
+  </si>
+  <si>
+    <t>Event shall be created. Upon new navitagion to the site, the event shall still be found.</t>
+  </si>
+  <si>
+    <t>Different combinations shall be tested:</t>
+  </si>
+  <si>
+    <t>Empty name shall be invalid.</t>
+  </si>
+  <si>
+    <t>Names shall be saved and displayed as they are entered (e.g. right case and right letters).</t>
+  </si>
+  <si>
+    <t>Names do not have to be unique.</t>
+  </si>
+  <si>
+    <t>All special characters and combinations of the german keyboard shall be valid.</t>
+  </si>
+  <si>
+    <t>The text field shall already be validated on the GUI for the database limitations.</t>
+  </si>
+  <si>
+    <t>Non-valid values should not be saved.</t>
+  </si>
+  <si>
+    <t>Create - name of an event</t>
+  </si>
+  <si>
+    <t>Used String for special characters test:</t>
+  </si>
+  <si>
+    <t>not ok, a too long text</t>
+  </si>
+  <si>
+    <t>is just saved without confirmation, and cut on the db limit</t>
+  </si>
+  <si>
+    <t>Create - description of an event</t>
+  </si>
+  <si>
+    <t>Empty descriptions shall be possible.</t>
+  </si>
+  <si>
+    <t>ok (no invald values could be found)</t>
+  </si>
+  <si>
+    <t>Create - tag list</t>
+  </si>
+  <si>
+    <t>unclear</t>
+  </si>
+  <si>
+    <t>Different tags can be entered, and are correctly interpreted.</t>
+  </si>
+  <si>
+    <t>Empty lists should not be saved.</t>
+  </si>
+  <si>
+    <t>Special character " terminates the input string</t>
+  </si>
+  <si>
+    <t>Create - time frame of the analysis</t>
+  </si>
+  <si>
+    <t>The same day cannot be entered.</t>
+  </si>
+  <si>
+    <t>Until must be after From.</t>
+  </si>
+  <si>
+    <t>The field shall already be validated on the GUI for the database limitations.</t>
+  </si>
+  <si>
+    <t>Values shall be saved and displayed as they are entered.</t>
+  </si>
+  <si>
+    <t>Date input does not properly work:</t>
+  </si>
+  <si>
+    <t>apparently, false dates are saved</t>
+  </si>
+  <si>
+    <t>e.g. input:</t>
+  </si>
+  <si>
+    <t>output (saved in db):</t>
+  </si>
+  <si>
+    <t>Create - Tweetnumber until notification</t>
+  </si>
+  <si>
+    <t>Numbers shall be input.</t>
+  </si>
+  <si>
+    <t>Natural, non-negative number shall be saved.</t>
+  </si>
+  <si>
+    <t>Text should not be input, or at least it should not be saved.</t>
+  </si>
+  <si>
+    <t>Edit - name of an event</t>
+  </si>
+  <si>
+    <t>Names shall be saved and displayed as they are entered (e.g. right case and right letters)</t>
+  </si>
+  <si>
+    <t>The text field shall already be validated on the GUI for the database limitations</t>
+  </si>
+  <si>
+    <t>as it is in the same form as adding the event, no explicit tests were invoked</t>
+  </si>
+  <si>
+    <t>Edit - description of an event</t>
+  </si>
+  <si>
+    <t>Edit - tag list</t>
+  </si>
+  <si>
+    <t>Edit - time frame of analysis</t>
+  </si>
+  <si>
+    <t>One note to this - dates are filled in the edit form as a different format than accepted</t>
+  </si>
+  <si>
+    <t>&gt; always has to be edited</t>
+  </si>
+  <si>
+    <t>e.g. from 20.0.2001</t>
+  </si>
+  <si>
+    <t>changes to 2001-01-20</t>
+  </si>
+  <si>
+    <t>Edit - tweetnumber until notification</t>
+  </si>
+  <si>
+    <t>Table of events</t>
+  </si>
+  <si>
+    <t>The existing events shall be displayed in a table.</t>
+  </si>
+  <si>
+    <t>Detail view of events</t>
+  </si>
+  <si>
+    <t>Detail view can be opened for all events.</t>
+  </si>
+  <si>
+    <t>Accurate saved information is displayed.</t>
+  </si>
+  <si>
+    <t>Accurate edited information is displayed.</t>
+  </si>
+  <si>
+    <t>not for from / to Date and for tags with special character "</t>
+  </si>
+  <si>
+    <t>Edit event and cancel</t>
+  </si>
+  <si>
+    <t>When editing an event and altering values in the detail view, the form is cancelled.</t>
+  </si>
+  <si>
+    <t>The values of the event should not be altered.</t>
+  </si>
+  <si>
+    <t>Delete an event</t>
+  </si>
+  <si>
+    <t>Events can be deleted. After Deletion, it cannot be found anymore.</t>
+  </si>
+  <si>
+    <t>Delete an event an cancel</t>
+  </si>
+  <si>
+    <t>The deletion confirmation, is cancelled.</t>
+  </si>
+  <si>
+    <t>Event shall not be deleted, and is still displayed.</t>
+  </si>
+  <si>
+    <t>Create event and cancel</t>
+  </si>
+  <si>
+    <t>After adding values to the create-form, it shall be cancelled.</t>
+  </si>
+  <si>
+    <t>The event should not be added.</t>
   </si>
 </sst>
 </file>
@@ -622,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E125"/>
+  <dimension ref="A1:E126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C127" sqref="C127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -667,18 +655,18 @@
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="4" t="s">
-        <v>85</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="2:4">
@@ -686,16 +674,16 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="B11" s="1"/>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="2:4">
@@ -706,72 +694,72 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="C14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="2:4">
       <c r="C15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="2:4">
       <c r="C16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="2:5">
       <c r="C17" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="2:5">
       <c r="C18" s="1" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="E18" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="2:5">
       <c r="C19" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>16</v>
+        <v>29</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="2:5">
       <c r="C20" s="4" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="2:5">
       <c r="C21" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="2:5">
@@ -782,71 +770,71 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" t="s">
         <v>20</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="24" spans="2:5">
       <c r="B24" s="1"/>
       <c r="C24" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="D24" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="2:5">
       <c r="B25" s="1"/>
       <c r="C25" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="2:5">
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="E26" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="2:5">
       <c r="B27" s="1"/>
       <c r="C27" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
+      </c>
+      <c r="D27" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="2:5">
       <c r="B28" s="1"/>
       <c r="C28" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="D28" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="2:5">
       <c r="B29" s="1"/>
       <c r="C29" s="4" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="D29" s="1"/>
     </row>
     <row r="30" spans="2:5">
       <c r="B30" s="1"/>
       <c r="C30" t="s">
-        <v>41</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>29</v>
+        <v>7</v>
+      </c>
+      <c r="D30" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="2:5">
@@ -864,69 +852,67 @@
         <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>21</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
+      </c>
+      <c r="D33" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="2:4">
       <c r="B34" s="1"/>
       <c r="C34" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="1"/>
       <c r="C35" t="s">
-        <v>41</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>32</v>
+        <v>7</v>
+      </c>
+      <c r="D35" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="1"/>
       <c r="C36" t="s">
-        <v>59</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
+      </c>
+      <c r="D36" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="2:4">
       <c r="B37" s="1"/>
       <c r="C37" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="1"/>
       <c r="C38" s="4" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D38" s="1"/>
     </row>
     <row r="39" spans="2:4">
       <c r="B39" s="1"/>
       <c r="C39" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
+      </c>
+      <c r="D39" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="2:4">
       <c r="B40" s="1"/>
-      <c r="C40" s="4" t="s">
-        <v>62</v>
-      </c>
+      <c r="C40" s="4"/>
       <c r="D40" s="1"/>
     </row>
     <row r="41" spans="2:4">
@@ -942,74 +928,74 @@
         <v>5</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>24</v>
+        <v>39</v>
+      </c>
+      <c r="D43" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="2:4">
       <c r="B44" s="1"/>
       <c r="C44" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>33</v>
+        <v>10</v>
+      </c>
+      <c r="D44" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="2:4">
       <c r="B45" s="1"/>
-      <c r="D45" s="3" t="s">
-        <v>34</v>
+      <c r="D45" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="2:4">
       <c r="B46" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>19</v>
+        <v>44</v>
+      </c>
+      <c r="D46" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="47" spans="2:4">
       <c r="B47" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
+      </c>
+      <c r="D47" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="2:4">
       <c r="B48" s="2" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
+      </c>
+      <c r="D48" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="B49" s="2"/>
       <c r="C49" s="4" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="D49" s="1"/>
     </row>
     <row r="50" spans="1:4">
       <c r="B50" s="2" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="D50" s="1"/>
     </row>
     <row r="51" spans="1:4">
       <c r="B51" s="2"/>
       <c r="C51" s="4" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="D51" s="1"/>
     </row>
@@ -1019,52 +1005,52 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="4" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="B53" s="2">
         <v>6</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>24</v>
+        <v>48</v>
+      </c>
+      <c r="D53" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="B54" s="1"/>
-      <c r="D54" s="1" t="s">
-        <v>25</v>
+      <c r="D54" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="B55" s="1"/>
-      <c r="D55" s="1" t="s">
-        <v>28</v>
+      <c r="D55" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="B56" s="1"/>
-      <c r="D56" s="1" t="s">
-        <v>26</v>
+      <c r="D56" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="B57" s="1"/>
-      <c r="D57" s="1" t="s">
-        <v>19</v>
+      <c r="D57" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="B58" s="1"/>
-      <c r="D58" s="1" t="s">
-        <v>27</v>
+      <c r="D58" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="B59" s="1"/>
-      <c r="D59" s="1" t="s">
-        <v>29</v>
+      <c r="D59" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1078,46 +1064,46 @@
         <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="D62" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="4" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="B63" s="1"/>
-      <c r="D63" s="1" t="s">
-        <v>12</v>
+      <c r="D63" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="B64" s="1"/>
-      <c r="D64" s="1" t="s">
-        <v>13</v>
+      <c r="D64" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="B65" s="1"/>
-      <c r="D65" s="1" t="s">
-        <v>14</v>
+      <c r="D65" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="D66" s="1" t="s">
-        <v>15</v>
+      <c r="D66" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="D67" s="1" t="s">
-        <v>16</v>
+      <c r="D67" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="D68" s="1" t="s">
-        <v>19</v>
+      <c r="D68" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1125,38 +1111,38 @@
         <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>82</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>24</v>
+        <v>56</v>
+      </c>
+      <c r="D71" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>30</v>
+        <v>55</v>
+      </c>
+      <c r="D72" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="D73" s="1" t="s">
-        <v>15</v>
+      <c r="D73" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="D74" s="1" t="s">
-        <v>19</v>
+      <c r="D74" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="D75" s="1" t="s">
-        <v>27</v>
+      <c r="D75" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="D76" s="1" t="s">
-        <v>29</v>
+      <c r="D76" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1170,38 +1156,38 @@
         <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>81</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>24</v>
+        <v>57</v>
+      </c>
+      <c r="D79" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>31</v>
+        <v>55</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="81" spans="1:4">
-      <c r="D81" s="3" t="s">
-        <v>32</v>
+      <c r="D81" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="D82" s="1" t="s">
-        <v>19</v>
+      <c r="D82" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="83" spans="1:4">
-      <c r="D83" s="1" t="s">
-        <v>27</v>
+      <c r="D83" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="84" spans="1:4">
-      <c r="D84" s="1" t="s">
-        <v>29</v>
+      <c r="D84" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1215,60 +1201,54 @@
         <v>10</v>
       </c>
       <c r="C87" t="s">
-        <v>80</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>24</v>
+        <v>58</v>
+      </c>
+      <c r="D87" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>33</v>
+        <v>55</v>
+      </c>
+      <c r="D88" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="4" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="B89" s="4"/>
-      <c r="D89" s="3" t="s">
-        <v>34</v>
+      <c r="D89" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="4" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="B90" s="4"/>
-      <c r="D90" s="1" t="s">
-        <v>19</v>
+      <c r="D90" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="4" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="B91" s="4"/>
-      <c r="D91" s="1" t="s">
-        <v>27</v>
+      <c r="D91" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B92" s="4"/>
-      <c r="D92" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93" s="4"/>
-      <c r="B93" s="4" t="s">
-        <v>79</v>
+      <c r="A92" s="4"/>
+      <c r="B92" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D92" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1279,46 +1259,46 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="4" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="B96" s="4">
         <v>11</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>24</v>
+        <v>63</v>
+      </c>
+      <c r="D96" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="97" spans="2:4">
-      <c r="D97" s="1" t="s">
-        <v>25</v>
+      <c r="D97" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="98" spans="2:4">
-      <c r="D98" s="1" t="s">
-        <v>28</v>
+      <c r="D98" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="99" spans="2:4">
-      <c r="D99" s="1" t="s">
+      <c r="D99" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4">
+      <c r="D100" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="100" spans="2:4">
-      <c r="D100" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
     <row r="101" spans="2:4">
-      <c r="D101" s="1" t="s">
-        <v>27</v>
+      <c r="D101" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="102" spans="2:4">
-      <c r="D102" s="1" t="s">
-        <v>29</v>
+      <c r="D102" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="105" spans="2:4">
@@ -1326,15 +1306,15 @@
         <v>12</v>
       </c>
       <c r="C105" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
     </row>
     <row r="106" spans="2:4">
       <c r="C106" t="s">
-        <v>41</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
+      </c>
+      <c r="D106" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="108" spans="2:4">
@@ -1342,31 +1322,31 @@
         <v>13</v>
       </c>
       <c r="C108" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="109" spans="2:4">
       <c r="C109" t="s">
-        <v>41</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>36</v>
+        <v>7</v>
+      </c>
+      <c r="D109" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="110" spans="2:4">
       <c r="C110" s="4" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="D110" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
     </row>
     <row r="111" spans="2:4">
       <c r="C111" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>40</v>
+        <v>70</v>
+      </c>
+      <c r="D111" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="113" spans="2:4">
@@ -1374,23 +1354,23 @@
         <v>14</v>
       </c>
       <c r="C113" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
     </row>
     <row r="114" spans="2:4">
       <c r="C114" t="s">
-        <v>41</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>44</v>
+        <v>7</v>
+      </c>
+      <c r="D114" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="115" spans="2:4">
       <c r="C115" t="s">
-        <v>41</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>45</v>
+        <v>7</v>
+      </c>
+      <c r="D115" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="117" spans="2:4">
@@ -1398,23 +1378,23 @@
         <v>15</v>
       </c>
       <c r="C117" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
     </row>
     <row r="118" spans="2:4">
       <c r="C118" t="s">
-        <v>41</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>46</v>
+        <v>7</v>
+      </c>
+      <c r="D118" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="119" spans="2:4">
       <c r="C119" t="s">
-        <v>41</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>47</v>
+        <v>7</v>
+      </c>
+      <c r="D119" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="121" spans="2:4">
@@ -1422,15 +1402,15 @@
         <v>16</v>
       </c>
       <c r="C121" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
     </row>
     <row r="122" spans="2:4">
       <c r="C122" t="s">
-        <v>41</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>49</v>
+        <v>7</v>
+      </c>
+      <c r="D122" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="124" spans="2:4">
@@ -1438,18 +1418,23 @@
         <v>17</v>
       </c>
       <c r="C124" t="s">
-        <v>50</v>
-      </c>
-      <c r="D124" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
     </row>
     <row r="125" spans="2:4">
       <c r="C125" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="D125" t="s">
-        <v>52</v>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4">
+      <c r="C126" t="s">
+        <v>7</v>
+      </c>
+      <c r="D126" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
